--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Ltbp3-Itgb5.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Ltbp3-Itgb5.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.513216380290648</v>
+        <v>1.214185333333333</v>
       </c>
       <c r="H2">
-        <v>0.513216380290648</v>
+        <v>3.642556</v>
       </c>
       <c r="I2">
-        <v>0.01318928329242947</v>
+        <v>0.02886664532879162</v>
       </c>
       <c r="J2">
-        <v>0.01318928329242947</v>
+        <v>0.02886664532879162</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.34156132731796</v>
+        <v>8.309350333333333</v>
       </c>
       <c r="N2">
-        <v>7.34156132731796</v>
+        <v>24.928051</v>
       </c>
       <c r="O2">
-        <v>0.1391340720095723</v>
+        <v>0.1535033474258946</v>
       </c>
       <c r="P2">
-        <v>0.1391340720095723</v>
+        <v>0.1535033474258946</v>
       </c>
       <c r="Q2">
-        <v>3.767809530087928</v>
+        <v>10.08909130426178</v>
       </c>
       <c r="R2">
-        <v>3.767809530087928</v>
+        <v>90.801821738356</v>
       </c>
       <c r="S2">
-        <v>0.001835078691363531</v>
+        <v>0.004431126686925578</v>
       </c>
       <c r="T2">
-        <v>0.001835078691363531</v>
+        <v>0.004431126686925578</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.513216380290648</v>
+        <v>1.214185333333333</v>
       </c>
       <c r="H3">
-        <v>0.513216380290648</v>
+        <v>3.642556</v>
       </c>
       <c r="I3">
-        <v>0.01318928329242947</v>
+        <v>0.02886664532879162</v>
       </c>
       <c r="J3">
-        <v>0.01318928329242947</v>
+        <v>0.02886664532879162</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>36.8797029813077</v>
+        <v>37.153391</v>
       </c>
       <c r="N3">
-        <v>36.8797029813077</v>
+        <v>111.460173</v>
       </c>
       <c r="O3">
-        <v>0.6989280646883133</v>
+        <v>0.6863556906301786</v>
       </c>
       <c r="P3">
-        <v>0.6989280646883133</v>
+        <v>0.6863556906301786</v>
       </c>
       <c r="Q3">
-        <v>18.92726767026096</v>
+        <v>45.11110243579866</v>
       </c>
       <c r="R3">
-        <v>18.92726767026096</v>
+        <v>405.999921922188</v>
       </c>
       <c r="S3">
-        <v>0.009218360246203636</v>
+        <v>0.01981278629081919</v>
       </c>
       <c r="T3">
-        <v>0.009218360246203636</v>
+        <v>0.01981278629081919</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.513216380290648</v>
+        <v>1.214185333333333</v>
       </c>
       <c r="H4">
-        <v>0.513216380290648</v>
+        <v>3.642556</v>
       </c>
       <c r="I4">
-        <v>0.01318928329242947</v>
+        <v>0.02886664532879162</v>
       </c>
       <c r="J4">
-        <v>0.01318928329242947</v>
+        <v>0.02886664532879162</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.544828290266031</v>
+        <v>8.668653666666666</v>
       </c>
       <c r="N4">
-        <v>8.544828290266031</v>
+        <v>26.005961</v>
       </c>
       <c r="O4">
-        <v>0.1619378633021143</v>
+        <v>0.1601409619439267</v>
       </c>
       <c r="P4">
-        <v>0.1619378633021143</v>
+        <v>0.1601409619439267</v>
       </c>
       <c r="Q4">
-        <v>4.385345845335459</v>
+        <v>10.52535214181289</v>
       </c>
       <c r="R4">
-        <v>4.385345845335459</v>
+        <v>94.728169276316</v>
       </c>
       <c r="S4">
-        <v>0.002135844354862304</v>
+        <v>0.00462273235104685</v>
       </c>
       <c r="T4">
-        <v>0.002135844354862304</v>
+        <v>0.00462273235104685</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.415418120381</v>
+        <v>28.525713</v>
       </c>
       <c r="H5">
-        <v>28.415418120381</v>
+        <v>85.577139</v>
       </c>
       <c r="I5">
-        <v>0.7302553345048955</v>
+        <v>0.6781844725971822</v>
       </c>
       <c r="J5">
-        <v>0.7302553345048955</v>
+        <v>0.6781844725971822</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.34156132731796</v>
+        <v>8.309350333333333</v>
       </c>
       <c r="N5">
-        <v>7.34156132731796</v>
+        <v>24.928051</v>
       </c>
       <c r="O5">
-        <v>0.1391340720095723</v>
+        <v>0.1535033474258946</v>
       </c>
       <c r="P5">
-        <v>0.1391340720095723</v>
+        <v>0.1535033474258946</v>
       </c>
       <c r="Q5">
-        <v>208.6135347721591</v>
+        <v>237.030142825121</v>
       </c>
       <c r="R5">
-        <v>208.6135347721591</v>
+        <v>2133.271285426089</v>
       </c>
       <c r="S5">
-        <v>0.1016033982963785</v>
+        <v>0.1041035867159323</v>
       </c>
       <c r="T5">
-        <v>0.1016033982963785</v>
+        <v>0.1041035867159324</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>28.415418120381</v>
+        <v>28.525713</v>
       </c>
       <c r="H6">
-        <v>28.415418120381</v>
+        <v>85.577139</v>
       </c>
       <c r="I6">
-        <v>0.7302553345048955</v>
+        <v>0.6781844725971822</v>
       </c>
       <c r="J6">
-        <v>0.7302553345048955</v>
+        <v>0.6781844725971822</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>36.8797029813077</v>
+        <v>37.153391</v>
       </c>
       <c r="N6">
-        <v>36.8797029813077</v>
+        <v>111.460173</v>
       </c>
       <c r="O6">
-        <v>0.6989280646883133</v>
+        <v>0.6863556906301786</v>
       </c>
       <c r="P6">
-        <v>0.6989280646883133</v>
+        <v>0.6863556906301786</v>
       </c>
       <c r="Q6">
-        <v>1047.95218036932</v>
+        <v>1059.826968642783</v>
       </c>
       <c r="R6">
-        <v>1047.95218036932</v>
+        <v>9538.442717785047</v>
       </c>
       <c r="S6">
-        <v>0.5103959476738235</v>
+        <v>0.4654757720641025</v>
       </c>
       <c r="T6">
-        <v>0.5103959476738235</v>
+        <v>0.4654757720641025</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>28.415418120381</v>
+        <v>28.525713</v>
       </c>
       <c r="H7">
-        <v>28.415418120381</v>
+        <v>85.577139</v>
       </c>
       <c r="I7">
-        <v>0.7302553345048955</v>
+        <v>0.6781844725971822</v>
       </c>
       <c r="J7">
-        <v>0.7302553345048955</v>
+        <v>0.6781844725971822</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.544828290266031</v>
+        <v>8.668653666666666</v>
       </c>
       <c r="N7">
-        <v>8.544828290266031</v>
+        <v>26.005961</v>
       </c>
       <c r="O7">
-        <v>0.1619378633021143</v>
+        <v>0.1601409619439267</v>
       </c>
       <c r="P7">
-        <v>0.1619378633021143</v>
+        <v>0.1601409619439267</v>
       </c>
       <c r="Q7">
-        <v>242.8048686347695</v>
+        <v>247.279526591731</v>
       </c>
       <c r="R7">
-        <v>242.8048686347695</v>
+        <v>2225.515739325579</v>
       </c>
       <c r="S7">
-        <v>0.1182559885346936</v>
+        <v>0.1086051138171474</v>
       </c>
       <c r="T7">
-        <v>0.1182559885346936</v>
+        <v>0.1086051138171474</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.982985555683459</v>
+        <v>12.32198033333333</v>
       </c>
       <c r="H8">
-        <v>9.982985555683459</v>
+        <v>36.965941</v>
       </c>
       <c r="I8">
-        <v>0.256555382202675</v>
+        <v>0.2929488820740263</v>
       </c>
       <c r="J8">
-        <v>0.256555382202675</v>
+        <v>0.2929488820740263</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.34156132731796</v>
+        <v>8.309350333333333</v>
       </c>
       <c r="N8">
-        <v>7.34156132731796</v>
+        <v>24.928051</v>
       </c>
       <c r="O8">
-        <v>0.1391340720095723</v>
+        <v>0.1535033474258946</v>
       </c>
       <c r="P8">
-        <v>0.1391340720095723</v>
+        <v>0.1535033474258946</v>
       </c>
       <c r="Q8">
-        <v>73.29070068677947</v>
+        <v>102.3876513901101</v>
       </c>
       <c r="R8">
-        <v>73.29070068677947</v>
+        <v>921.488862510991</v>
       </c>
       <c r="S8">
-        <v>0.03569559502183035</v>
+        <v>0.04496863402303667</v>
       </c>
       <c r="T8">
-        <v>0.03569559502183035</v>
+        <v>0.04496863402303668</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.982985555683459</v>
+        <v>12.32198033333333</v>
       </c>
       <c r="H9">
-        <v>9.982985555683459</v>
+        <v>36.965941</v>
       </c>
       <c r="I9">
-        <v>0.256555382202675</v>
+        <v>0.2929488820740263</v>
       </c>
       <c r="J9">
-        <v>0.256555382202675</v>
+        <v>0.2929488820740263</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>36.8797029813077</v>
+        <v>37.153391</v>
       </c>
       <c r="N9">
-        <v>36.8797029813077</v>
+        <v>111.460173</v>
       </c>
       <c r="O9">
-        <v>0.6989280646883133</v>
+        <v>0.6863556906301786</v>
       </c>
       <c r="P9">
-        <v>0.6989280646883133</v>
+        <v>0.6863556906301786</v>
       </c>
       <c r="Q9">
-        <v>368.169542160291</v>
+        <v>457.8033532186437</v>
       </c>
       <c r="R9">
-        <v>368.169542160291</v>
+        <v>4120.230178967793</v>
       </c>
       <c r="S9">
-        <v>0.1793137567682862</v>
+        <v>0.201067132275257</v>
       </c>
       <c r="T9">
-        <v>0.1793137567682862</v>
+        <v>0.201067132275257</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.982985555683459</v>
+        <v>12.32198033333333</v>
       </c>
       <c r="H10">
-        <v>9.982985555683459</v>
+        <v>36.965941</v>
       </c>
       <c r="I10">
-        <v>0.256555382202675</v>
+        <v>0.2929488820740263</v>
       </c>
       <c r="J10">
-        <v>0.256555382202675</v>
+        <v>0.2929488820740263</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.544828290266031</v>
+        <v>8.668653666666666</v>
       </c>
       <c r="N10">
-        <v>8.544828290266031</v>
+        <v>26.005961</v>
       </c>
       <c r="O10">
-        <v>0.1619378633021143</v>
+        <v>0.1601409619439267</v>
       </c>
       <c r="P10">
-        <v>0.1619378633021143</v>
+        <v>0.1601409619439267</v>
       </c>
       <c r="Q10">
-        <v>85.30289739752118</v>
+        <v>106.8149799971445</v>
       </c>
       <c r="R10">
-        <v>85.30289739752118</v>
+        <v>961.334819974301</v>
       </c>
       <c r="S10">
-        <v>0.04154603041255849</v>
+        <v>0.04691311577573252</v>
       </c>
       <c r="T10">
-        <v>0.04154603041255849</v>
+        <v>0.04691311577573252</v>
       </c>
     </row>
   </sheetData>
